--- a/Code/Results/Cases/Case_4_184/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_184/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.995491077413135</v>
+        <v>2.657985007885657</v>
       </c>
       <c r="C2">
-        <v>0.2997440837028762</v>
+        <v>0.2409211227275136</v>
       </c>
       <c r="D2">
-        <v>0.2330611883850793</v>
+        <v>0.4282344898476822</v>
       </c>
       <c r="E2">
-        <v>0.03982658319217158</v>
+        <v>0.1010138446183664</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000881084114288333</v>
+        <v>0.002714825517674324</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.162409206015255</v>
+        <v>3.57611820949009</v>
       </c>
       <c r="J2">
-        <v>0.008058569876962629</v>
+        <v>0.01813705359000117</v>
       </c>
       <c r="K2">
-        <v>2.152611452299226</v>
+        <v>2.592665901837677</v>
       </c>
       <c r="L2">
-        <v>0.4373380494478027</v>
+        <v>0.7416679462038331</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.293539163974629</v>
+        <v>5.278814373002007</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.797129483745721</v>
+        <v>2.625694755306569</v>
       </c>
       <c r="C3">
-        <v>0.2653956663805559</v>
+        <v>0.2331228688211695</v>
       </c>
       <c r="D3">
-        <v>0.2174363880439074</v>
+        <v>0.4267626735653351</v>
       </c>
       <c r="E3">
-        <v>0.03852825428617912</v>
+        <v>0.1011979672184449</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000889363651889283</v>
+        <v>0.00271998817399863</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.086110623211027</v>
+        <v>3.565383307327295</v>
       </c>
       <c r="J3">
-        <v>0.007716445072582623</v>
+        <v>0.01801644599913654</v>
       </c>
       <c r="K3">
-        <v>1.931284299847874</v>
+        <v>2.553165932664172</v>
       </c>
       <c r="L3">
-        <v>0.4060035910465558</v>
+        <v>0.7379445411949916</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.269312236386384</v>
+        <v>5.273354847626962</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.678403225897597</v>
+        <v>2.607306995407299</v>
       </c>
       <c r="C4">
-        <v>0.2448084898093015</v>
+        <v>0.2284744758995032</v>
       </c>
       <c r="D4">
-        <v>0.2081762508840228</v>
+        <v>0.4260403690709325</v>
       </c>
       <c r="E4">
-        <v>0.03777758998163172</v>
+        <v>0.1013434587761548</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008945941386370171</v>
+        <v>0.002723325956178959</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.041801231017843</v>
+        <v>3.559834864318631</v>
       </c>
       <c r="J4">
-        <v>0.007508379197401105</v>
+        <v>0.01794080490289041</v>
       </c>
       <c r="K4">
-        <v>1.798763309329985</v>
+        <v>2.530346814274907</v>
       </c>
       <c r="L4">
-        <v>0.3874174846910137</v>
+        <v>0.7359832250159712</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.25690236083696</v>
+        <v>5.270854343902101</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.630724548877964</v>
+        <v>2.60017553168575</v>
       </c>
       <c r="C5">
-        <v>0.2365319059349105</v>
+        <v>0.2266152121054859</v>
       </c>
       <c r="D5">
-        <v>0.2044806610105496</v>
+        <v>0.4257916681294489</v>
       </c>
       <c r="E5">
-        <v>0.03748283122986251</v>
+        <v>0.1014109197153186</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008967638687054755</v>
+        <v>0.002724728488098933</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.024341708854664</v>
+        <v>3.557835953975626</v>
       </c>
       <c r="J5">
-        <v>0.007423950612673202</v>
+        <v>0.01790957762983236</v>
       </c>
       <c r="K5">
-        <v>1.745529796883915</v>
+        <v>2.521408162810786</v>
       </c>
       <c r="L5">
-        <v>0.3799954075125669</v>
+        <v>0.735265677313393</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.252432553343013</v>
+        <v>5.270049282336402</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.622848112775984</v>
+        <v>2.599013202246027</v>
       </c>
       <c r="C6">
-        <v>0.2351640241941482</v>
+        <v>0.2263085919509393</v>
       </c>
       <c r="D6">
-        <v>0.2038715578386388</v>
+        <v>0.4257531292404622</v>
       </c>
       <c r="E6">
-        <v>0.0374345443703632</v>
+        <v>0.101422615556368</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.000897126499449349</v>
+        <v>0.002724963939817998</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.021477470917475</v>
+        <v>3.557519865333816</v>
       </c>
       <c r="J6">
-        <v>0.007409949097487711</v>
+        <v>0.01790436792251526</v>
       </c>
       <c r="K6">
-        <v>1.736734721153709</v>
+        <v>2.51994566170535</v>
       </c>
       <c r="L6">
-        <v>0.3787718079126989</v>
+        <v>0.7351514642869432</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.251724910056424</v>
+        <v>5.269928515311463</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.677757453844436</v>
+        <v>2.607209353554907</v>
       </c>
       <c r="C7">
-        <v>0.2446964291550273</v>
+        <v>0.2284492597252665</v>
       </c>
       <c r="D7">
-        <v>0.2081261025419536</v>
+        <v>0.4260368301509345</v>
       </c>
       <c r="E7">
-        <v>0.03777357034583595</v>
+        <v>0.1013443354702286</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008946232437178364</v>
+        <v>0.002723344699633928</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.041563401281081</v>
+        <v>3.559806845134787</v>
       </c>
       <c r="J7">
-        <v>0.007507239286842271</v>
+        <v>0.01794038539708698</v>
       </c>
       <c r="K7">
-        <v>1.798042366153595</v>
+        <v>2.530224805913065</v>
       </c>
       <c r="L7">
-        <v>0.3873167885668209</v>
+        <v>0.7359732170778273</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.256839742766701</v>
+        <v>5.270842620790916</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.92641626054413</v>
+        <v>2.646552700645515</v>
       </c>
       <c r="C8">
-        <v>0.2877878419783428</v>
+        <v>0.2382031816339918</v>
       </c>
       <c r="D8">
-        <v>0.2276008426922829</v>
+        <v>0.4276893750788844</v>
       </c>
       <c r="E8">
-        <v>0.03936891848430157</v>
+        <v>0.1010706059431339</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008839092671204456</v>
+        <v>0.00271657084106205</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.13554872834942</v>
+        <v>3.572200302803296</v>
       </c>
       <c r="J8">
-        <v>0.007940100078447365</v>
+        <v>0.018095795328672</v>
       </c>
       <c r="K8">
-        <v>2.075548046288219</v>
+        <v>2.578748493531293</v>
       </c>
       <c r="L8">
-        <v>0.4263905569371929</v>
+        <v>0.7403166938615584</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.284653516134156</v>
+        <v>5.276755010527538</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.44177839546461</v>
+        <v>2.735129890140342</v>
       </c>
       <c r="C9">
-        <v>0.3769568230494826</v>
+        <v>0.2584477325623027</v>
       </c>
       <c r="D9">
-        <v>0.2687290373282707</v>
+        <v>0.4323686804917344</v>
       </c>
       <c r="E9">
-        <v>0.04289391619968974</v>
+        <v>0.1007906310708204</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008639979476315891</v>
+        <v>0.00270461301618922</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.342044228472446</v>
+        <v>3.604787163809334</v>
       </c>
       <c r="J9">
-        <v>0.008811980958613574</v>
+        <v>0.01838813374931902</v>
       </c>
       <c r="K9">
-        <v>2.650424855100425</v>
+        <v>2.685303047832861</v>
       </c>
       <c r="L9">
-        <v>0.5088131351457434</v>
+        <v>0.7514127628399336</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.360378671651659</v>
+        <v>5.29512073568344</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.842581109226501</v>
+        <v>2.807199174557184</v>
       </c>
       <c r="C10">
-        <v>0.446364564013038</v>
+        <v>0.2740156514618093</v>
       </c>
       <c r="D10">
-        <v>0.3011876361897521</v>
+        <v>0.436683813306658</v>
       </c>
       <c r="E10">
-        <v>0.04576784471911921</v>
+        <v>0.1007407976985224</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.000849937572226978</v>
+        <v>0.002696626751648841</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.5104554102072</v>
+        <v>3.633797065650228</v>
       </c>
       <c r="J10">
-        <v>0.009477841619341731</v>
+        <v>0.01859560069920452</v>
       </c>
       <c r="K10">
-        <v>3.097551745036526</v>
+        <v>2.770581183087927</v>
       </c>
       <c r="L10">
-        <v>0.5738552774537311</v>
+        <v>0.7611402156928193</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3.431431580212092</v>
+        <v>5.312765696774193</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.031059528860624</v>
+        <v>2.841510293941155</v>
       </c>
       <c r="C11">
-        <v>0.47905325052119</v>
+        <v>0.2812516498979107</v>
       </c>
       <c r="D11">
-        <v>0.3165543773399264</v>
+        <v>0.4388375041981192</v>
       </c>
       <c r="E11">
-        <v>0.04714764523953718</v>
+        <v>0.1007518349397749</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008436392475898027</v>
+        <v>0.002693165195407018</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.591499867847972</v>
+        <v>3.648099519443846</v>
       </c>
       <c r="J11">
-        <v>0.009789157382743774</v>
+        <v>0.01868845095210681</v>
       </c>
       <c r="K11">
-        <v>3.307873745289442</v>
+        <v>2.810905126073862</v>
       </c>
       <c r="L11">
-        <v>0.604659607020082</v>
+        <v>0.7659084032043779</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3.467739660951651</v>
+        <v>5.321699793326502</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.103441441301243</v>
+        <v>2.854722869436898</v>
       </c>
       <c r="C12">
-        <v>0.4916173276768063</v>
+        <v>0.2840140982631283</v>
       </c>
       <c r="D12">
-        <v>0.3224705162256782</v>
+        <v>0.4396804708453175</v>
       </c>
       <c r="E12">
-        <v>0.04768155987461853</v>
+        <v>0.1007608491056953</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008412659366317026</v>
+        <v>0.002691878899800784</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.622902939246828</v>
+        <v>3.653674758594818</v>
       </c>
       <c r="J12">
-        <v>0.009908534601428265</v>
+        <v>0.01872339553961844</v>
       </c>
       <c r="K12">
-        <v>3.388657642917281</v>
+        <v>2.826395450927521</v>
       </c>
       <c r="L12">
-        <v>0.6165220635022166</v>
+        <v>0.7677633717486145</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3.482122290929993</v>
+        <v>5.325213752936293</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.087805671335616</v>
+        <v>2.85186753035822</v>
       </c>
       <c r="C13">
-        <v>0.4889027390043452</v>
+        <v>0.2834181594725464</v>
       </c>
       <c r="D13">
-        <v>0.3211918690960687</v>
+        <v>0.4394977040050208</v>
       </c>
       <c r="E13">
-        <v>0.04756604703733736</v>
+        <v>0.100758692918177</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008417765900845426</v>
+        <v>0.00269215483801441</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.616106697832251</v>
+        <v>3.652466946689245</v>
       </c>
       <c r="J13">
-        <v>0.009882753525347177</v>
+        <v>0.01871587913297823</v>
       </c>
       <c r="K13">
-        <v>3.371206223167121</v>
+        <v>2.823049517288212</v>
       </c>
       <c r="L13">
-        <v>0.6139580971885152</v>
+        <v>0.7673616754688055</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.478995516546348</v>
+        <v>5.324451135492666</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.03699343905555</v>
+        <v>2.842592896176825</v>
       </c>
       <c r="C14">
-        <v>0.4800830294678065</v>
+        <v>0.2814784695804633</v>
       </c>
       <c r="D14">
-        <v>0.3170390904965359</v>
+        <v>0.4389063062958343</v>
       </c>
       <c r="E14">
-        <v>0.0471913358375371</v>
+        <v>0.100752479717924</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008434437732117326</v>
+        <v>0.002693058880619731</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.59406865556582</v>
+        <v>3.648555005667433</v>
       </c>
       <c r="J14">
-        <v>0.009798947051008255</v>
+        <v>0.01869133016614999</v>
       </c>
       <c r="K14">
-        <v>3.314496160066824</v>
+        <v>2.812175102228309</v>
       </c>
       <c r="L14">
-        <v>0.6056314406102956</v>
+        <v>0.7660600232249237</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.468909859271633</v>
+        <v>5.321986265275171</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.006004862252666</v>
+        <v>2.836940532472624</v>
       </c>
       <c r="C15">
-        <v>0.4747056740792743</v>
+        <v>0.2802932672115048</v>
       </c>
       <c r="D15">
-        <v>0.3145083742287795</v>
+        <v>0.4385476274133993</v>
       </c>
       <c r="E15">
-        <v>0.04696333242622508</v>
+        <v>0.1007493031981461</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008444664244149644</v>
+        <v>0.002693615821878415</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.580665013338617</v>
+        <v>3.646179569159386</v>
       </c>
       <c r="J15">
-        <v>0.00974781595447638</v>
+        <v>0.018676265228871</v>
       </c>
       <c r="K15">
-        <v>3.279912580474502</v>
+        <v>2.805542940976636</v>
       </c>
       <c r="L15">
-        <v>0.6005575636058467</v>
+        <v>0.7652691523197745</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3.462816526499353</v>
+        <v>5.320493506786789</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.830397710237833</v>
+        <v>2.804987594701288</v>
       </c>
       <c r="C16">
-        <v>0.4442528051507395</v>
+        <v>0.27354587738688</v>
       </c>
       <c r="D16">
-        <v>0.3001963625554396</v>
+        <v>0.4365469009873237</v>
       </c>
       <c r="E16">
-        <v>0.04567921186950663</v>
+        <v>0.1007407535899176</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008503509568026297</v>
+        <v>0.002696856410855761</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.505254451959971</v>
+        <v>3.632884634093642</v>
       </c>
       <c r="J16">
-        <v>0.009457688701522748</v>
+        <v>0.01858950230919465</v>
       </c>
       <c r="K16">
-        <v>3.083957933161855</v>
+        <v>2.767976753153619</v>
       </c>
       <c r="L16">
-        <v>0.5718684916379289</v>
+        <v>0.7608355094420176</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3.429143966324972</v>
+        <v>5.312200118977501</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.724328136655856</v>
+        <v>2.785776596314861</v>
       </c>
       <c r="C17">
-        <v>0.4258735186568856</v>
+        <v>0.2694461594553275</v>
       </c>
       <c r="D17">
-        <v>0.2915775753668584</v>
+        <v>0.4353683564119279</v>
       </c>
       <c r="E17">
-        <v>0.04491067346691935</v>
+        <v>0.1007441328914158</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008539843952808785</v>
+        <v>0.002698888221972893</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.460179187920133</v>
+        <v>3.625011966622239</v>
       </c>
       <c r="J17">
-        <v>0.009282046879127925</v>
+        <v>0.01853588758065694</v>
       </c>
       <c r="K17">
-        <v>2.965616301387058</v>
+        <v>2.745323416237227</v>
       </c>
       <c r="L17">
-        <v>0.554595488076302</v>
+        <v>0.7582035070370949</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.409548555118647</v>
+        <v>5.307345019172885</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.663890437839768</v>
+        <v>2.774870600999463</v>
       </c>
       <c r="C18">
-        <v>0.4154054825525009</v>
+        <v>0.267102601545929</v>
       </c>
       <c r="D18">
-        <v>0.2866761563813327</v>
+        <v>0.4347084405066113</v>
       </c>
       <c r="E18">
-        <v>0.04447538251661598</v>
+        <v>0.1007492499354399</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008560836137880834</v>
+        <v>0.002700073010226634</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.434665347244504</v>
+        <v>3.620587877382107</v>
       </c>
       <c r="J18">
-        <v>0.009181795438483853</v>
+        <v>0.01850490579843367</v>
       </c>
       <c r="K18">
-        <v>2.898191259597098</v>
+        <v>2.732437845648207</v>
       </c>
       <c r="L18">
-        <v>0.5447734996860305</v>
+        <v>0.7567219436391639</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.398648936871268</v>
+        <v>5.304637874218315</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.643521725454832</v>
+        <v>2.77120268681972</v>
       </c>
       <c r="C19">
-        <v>0.4118781961496438</v>
+        <v>0.266311596669766</v>
       </c>
       <c r="D19">
-        <v>0.2850259127160797</v>
+        <v>0.4344880880061481</v>
       </c>
       <c r="E19">
-        <v>0.04432913153871709</v>
+        <v>0.1007515278869704</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008567960477644172</v>
+        <v>0.002700476935702177</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.426095438282701</v>
+        <v>3.61910782303849</v>
       </c>
       <c r="J19">
-        <v>0.009147976887554421</v>
+        <v>0.01849439104876272</v>
       </c>
       <c r="K19">
-        <v>2.875468429495527</v>
+        <v>2.728099736977015</v>
       </c>
       <c r="L19">
-        <v>0.5414667017308972</v>
+        <v>0.7562258578587802</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.395020532198856</v>
+        <v>5.303735935284351</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.735559499819033</v>
+        <v>2.787806769975816</v>
       </c>
       <c r="C20">
-        <v>0.4278191663322559</v>
+        <v>0.2698810803468348</v>
       </c>
       <c r="D20">
-        <v>0.2924892034336182</v>
+        <v>0.4354919566617355</v>
       </c>
       <c r="E20">
-        <v>0.04499178001154824</v>
+        <v>0.1007434448188196</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008535966569376024</v>
+        <v>0.002698670262400828</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.46493433867866</v>
+        <v>3.62583925415818</v>
       </c>
       <c r="J20">
-        <v>0.009300662334206677</v>
+        <v>0.01854160983634046</v>
       </c>
       <c r="K20">
-        <v>2.97814654143906</v>
+        <v>2.747719993003955</v>
       </c>
       <c r="L20">
-        <v>0.5564223796333323</v>
+        <v>0.7584803456752809</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.411595693282834</v>
+        <v>5.307853013952723</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.051889766067632</v>
+        <v>2.845311116807864</v>
       </c>
       <c r="C21">
-        <v>0.4826683383578825</v>
+        <v>0.2820475959879332</v>
       </c>
       <c r="D21">
-        <v>0.3182561363397411</v>
+        <v>0.4390792703248536</v>
       </c>
       <c r="E21">
-        <v>0.04730107930164351</v>
+        <v>0.1007541735732804</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008429537827052794</v>
+        <v>0.002692792676922872</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.600521755177681</v>
+        <v>3.649699714914732</v>
       </c>
       <c r="J21">
-        <v>0.009823520231337035</v>
+        <v>0.01869854661838222</v>
       </c>
       <c r="K21">
-        <v>3.331121119115949</v>
+        <v>2.815363193003691</v>
       </c>
       <c r="L21">
-        <v>0.6080716270821824</v>
+        <v>0.766441010271663</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3.471854549233683</v>
+        <v>5.322706704479884</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.264581355097107</v>
+        <v>2.884174211952541</v>
       </c>
       <c r="C22">
-        <v>0.5196112206885175</v>
+        <v>0.2901293742334019</v>
       </c>
       <c r="D22">
-        <v>0.3356680822866593</v>
+        <v>0.441583552148586</v>
       </c>
       <c r="E22">
-        <v>0.04887741880395957</v>
+        <v>0.1007893596211566</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008360651257795935</v>
+        <v>0.002689094197824257</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.693335548632689</v>
+        <v>3.666222010101492</v>
       </c>
       <c r="J22">
-        <v>0.01017407301359707</v>
+        <v>0.01879985791436667</v>
       </c>
       <c r="K22">
-        <v>3.568532243054506</v>
+        <v>2.860857528132897</v>
       </c>
       <c r="L22">
-        <v>0.6429912338938095</v>
+        <v>0.7719314805511033</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3.514963507345669</v>
+        <v>5.333177080541304</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.150474124245648</v>
+        <v>2.863314993963172</v>
       </c>
       <c r="C23">
-        <v>0.4997846548396296</v>
+        <v>0.2858039992695751</v>
       </c>
       <c r="D23">
-        <v>0.3263188339721665</v>
+        <v>0.4402323554751177</v>
       </c>
       <c r="E23">
-        <v>0.04802959859994971</v>
+        <v>0.1007680062530749</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008397364371944488</v>
+        <v>0.002691055117107484</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.643387346738876</v>
+        <v>3.657318756082802</v>
       </c>
       <c r="J23">
-        <v>0.009986065725256843</v>
+        <v>0.01874589980634589</v>
       </c>
       <c r="K23">
-        <v>3.441154137744377</v>
+        <v>2.836458562933899</v>
       </c>
       <c r="L23">
-        <v>0.6242392966120036</v>
+        <v>0.768974780007639</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>3.491592565643487</v>
+        <v>5.327518948646002</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.730480118097262</v>
+        <v>2.78688849655731</v>
       </c>
       <c r="C24">
-        <v>0.4269392342064577</v>
+        <v>0.2696844108108394</v>
       </c>
       <c r="D24">
-        <v>0.2920768901071114</v>
+        <v>0.4354360220274174</v>
       </c>
       <c r="E24">
-        <v>0.04495509140862453</v>
+        <v>0.1007437460083498</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008537719212105317</v>
+        <v>0.002698768750035944</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.462783293077209</v>
+        <v>3.62546491970916</v>
       </c>
       <c r="J24">
-        <v>0.009292244041862574</v>
+        <v>0.01853902329671353</v>
       </c>
       <c r="K24">
-        <v>2.97247972703002</v>
+        <v>2.746636070409352</v>
       </c>
       <c r="L24">
-        <v>0.5555961057092418</v>
+        <v>0.758355088469969</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.410669046447509</v>
+        <v>5.307623087498001</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.298879189482079</v>
+        <v>2.709941597636259</v>
       </c>
       <c r="C25">
-        <v>0.3522329225880583</v>
+        <v>0.2528500923340005</v>
       </c>
       <c r="D25">
-        <v>0.2572444298465228</v>
+        <v>0.4309487707764532</v>
       </c>
       <c r="E25">
-        <v>0.04189373928660522</v>
+        <v>0.1008389511192433</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008692767507327749</v>
+        <v>0.002707706936239698</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.283498440247484</v>
+        <v>3.595082880107313</v>
       </c>
       <c r="J25">
-        <v>0.008572565134982391</v>
+        <v>0.01831035157123928</v>
       </c>
       <c r="K25">
-        <v>2.491032336437399</v>
+        <v>2.655252428327174</v>
       </c>
       <c r="L25">
-        <v>0.4858025056568636</v>
+        <v>0.7481346112598857</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.337382632991591</v>
+        <v>5.289424971490547</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_184/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_184/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.657985007885657</v>
+        <v>1.995491077413249</v>
       </c>
       <c r="C2">
-        <v>0.2409211227275136</v>
+        <v>0.2997440837028762</v>
       </c>
       <c r="D2">
-        <v>0.4282344898476822</v>
+        <v>0.2330611883848235</v>
       </c>
       <c r="E2">
-        <v>0.1010138446183664</v>
+        <v>0.03982658319213961</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002714825517674324</v>
+        <v>0.0008810841142891499</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3.57611820949009</v>
+        <v>2.162409206015283</v>
       </c>
       <c r="J2">
-        <v>0.01813705359000117</v>
+        <v>0.00805856987690845</v>
       </c>
       <c r="K2">
-        <v>2.592665901837677</v>
+        <v>2.15261145229934</v>
       </c>
       <c r="L2">
-        <v>0.7416679462038331</v>
+        <v>0.4373380494478738</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>5.278814373002007</v>
+        <v>3.293539163974685</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.625694755306569</v>
+        <v>1.797129483745664</v>
       </c>
       <c r="C3">
-        <v>0.2331228688211695</v>
+        <v>0.2653956663801296</v>
       </c>
       <c r="D3">
-        <v>0.4267626735653351</v>
+        <v>0.2174363880439074</v>
       </c>
       <c r="E3">
-        <v>0.1011979672184449</v>
+        <v>0.03852825428617024</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.00271998817399863</v>
+        <v>0.0008893636520058238</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.565383307327295</v>
+        <v>2.086110623211027</v>
       </c>
       <c r="J3">
-        <v>0.01801644599913654</v>
+        <v>0.007716445072566636</v>
       </c>
       <c r="K3">
-        <v>2.553165932664172</v>
+        <v>1.931284299847903</v>
       </c>
       <c r="L3">
-        <v>0.7379445411949916</v>
+        <v>0.4060035910465984</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>5.273354847626962</v>
+        <v>3.269312236386412</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.607306995407299</v>
+        <v>1.678403225897597</v>
       </c>
       <c r="C4">
-        <v>0.2284744758995032</v>
+        <v>0.2448084898095146</v>
       </c>
       <c r="D4">
-        <v>0.4260403690709325</v>
+        <v>0.2081762508839944</v>
       </c>
       <c r="E4">
-        <v>0.1013434587761548</v>
+        <v>0.03777758998163172</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002723325956178959</v>
+        <v>0.0008945941387446551</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3.559834864318631</v>
+        <v>2.041801231017843</v>
       </c>
       <c r="J4">
-        <v>0.01794080490289041</v>
+        <v>0.007508379197390447</v>
       </c>
       <c r="K4">
-        <v>2.530346814274907</v>
+        <v>1.798763309330042</v>
       </c>
       <c r="L4">
-        <v>0.7359832250159712</v>
+        <v>0.3874174846909852</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5.270854343902101</v>
+        <v>3.256902360836946</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.60017553168575</v>
+        <v>1.630724548877964</v>
       </c>
       <c r="C5">
-        <v>0.2266152121054859</v>
+        <v>0.2365319059347115</v>
       </c>
       <c r="D5">
-        <v>0.4257916681294489</v>
+        <v>0.2044806610105212</v>
       </c>
       <c r="E5">
-        <v>0.1014109197153186</v>
+        <v>0.0374828312298785</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002724728488098933</v>
+        <v>0.0008967638686334531</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.557835953975626</v>
+        <v>2.024341708854649</v>
       </c>
       <c r="J5">
-        <v>0.01790957762983236</v>
+        <v>0.00742395061275225</v>
       </c>
       <c r="K5">
-        <v>2.521408162810786</v>
+        <v>1.745529796883915</v>
       </c>
       <c r="L5">
-        <v>0.735265677313393</v>
+        <v>0.3799954075125243</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.270049282336402</v>
+        <v>3.252432553342985</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.599013202246027</v>
+        <v>1.622848112775898</v>
       </c>
       <c r="C6">
-        <v>0.2263085919509393</v>
+        <v>0.2351640241941482</v>
       </c>
       <c r="D6">
-        <v>0.4257531292404622</v>
+        <v>0.2038715578385251</v>
       </c>
       <c r="E6">
-        <v>0.101422615556368</v>
+        <v>0.03743454437038984</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002724963939817998</v>
+        <v>0.0008971264993862187</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3.557519865333816</v>
+        <v>2.021477470917489</v>
       </c>
       <c r="J6">
-        <v>0.01790436792251526</v>
+        <v>0.007409949097482382</v>
       </c>
       <c r="K6">
-        <v>2.51994566170535</v>
+        <v>1.736734721153709</v>
       </c>
       <c r="L6">
-        <v>0.7351514642869432</v>
+        <v>0.378771807912571</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.269928515311463</v>
+        <v>3.25172491005651</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.607209353554907</v>
+        <v>1.677757453844379</v>
       </c>
       <c r="C7">
-        <v>0.2284492597252665</v>
+        <v>0.2446964291547431</v>
       </c>
       <c r="D7">
-        <v>0.4260368301509345</v>
+        <v>0.2081261025419536</v>
       </c>
       <c r="E7">
-        <v>0.1013443354702286</v>
+        <v>0.03777357034576667</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002723344699633928</v>
+        <v>0.0008946232438348245</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3.559806845134787</v>
+        <v>2.041563401281124</v>
       </c>
       <c r="J7">
-        <v>0.01794038539708698</v>
+        <v>0.007507239286855594</v>
       </c>
       <c r="K7">
-        <v>2.530224805913065</v>
+        <v>1.798042366153624</v>
       </c>
       <c r="L7">
-        <v>0.7359732170778273</v>
+        <v>0.3873167885667357</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>5.270842620790916</v>
+        <v>3.256839742766743</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.646552700645515</v>
+        <v>1.926416260544016</v>
       </c>
       <c r="C8">
-        <v>0.2382031816339918</v>
+        <v>0.287787841978286</v>
       </c>
       <c r="D8">
-        <v>0.4276893750788844</v>
+        <v>0.2276008426921123</v>
       </c>
       <c r="E8">
-        <v>0.1010706059431339</v>
+        <v>0.03936891848435664</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00271657084106205</v>
+        <v>0.0008839092671772318</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.572200302803296</v>
+        <v>2.135548728349391</v>
       </c>
       <c r="J8">
-        <v>0.018095795328672</v>
+        <v>0.007940100078462464</v>
       </c>
       <c r="K8">
-        <v>2.578748493531293</v>
+        <v>2.075548046288191</v>
       </c>
       <c r="L8">
-        <v>0.7403166938615584</v>
+        <v>0.4263905569371502</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>5.276755010527538</v>
+        <v>3.284653516134057</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.735129890140342</v>
+        <v>2.441778395464723</v>
       </c>
       <c r="C9">
-        <v>0.2584477325623027</v>
+        <v>0.3769568230499658</v>
       </c>
       <c r="D9">
-        <v>0.4323686804917344</v>
+        <v>0.2687290373281286</v>
       </c>
       <c r="E9">
-        <v>0.1007906310708204</v>
+        <v>0.04289391619969152</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.00270461301618922</v>
+        <v>0.0008639979475723327</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.604787163809334</v>
+        <v>2.34204422847246</v>
       </c>
       <c r="J9">
-        <v>0.01838813374931902</v>
+        <v>0.008811980958684629</v>
       </c>
       <c r="K9">
-        <v>2.685303047832861</v>
+        <v>2.650424855100368</v>
       </c>
       <c r="L9">
-        <v>0.7514127628399336</v>
+        <v>0.5088131351457434</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>5.29512073568344</v>
+        <v>3.360378671651688</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.807199174557184</v>
+        <v>2.842581109226614</v>
       </c>
       <c r="C10">
-        <v>0.2740156514618093</v>
+        <v>0.4463645640132938</v>
       </c>
       <c r="D10">
-        <v>0.436683813306658</v>
+        <v>0.3011876361896668</v>
       </c>
       <c r="E10">
-        <v>0.1007407976985224</v>
+        <v>0.04576784471918138</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002696626751648841</v>
+        <v>0.0008499375720968014</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.633797065650228</v>
+        <v>2.510455410207243</v>
       </c>
       <c r="J10">
-        <v>0.01859560069920452</v>
+        <v>0.009477841619456306</v>
       </c>
       <c r="K10">
-        <v>2.770581183087927</v>
+        <v>3.097551745036583</v>
       </c>
       <c r="L10">
-        <v>0.7611402156928193</v>
+        <v>0.5738552774535606</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5.312765696774193</v>
+        <v>3.431431580212148</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.841510293941155</v>
+        <v>3.03105952886051</v>
       </c>
       <c r="C11">
-        <v>0.2812516498979107</v>
+        <v>0.4790532505209057</v>
       </c>
       <c r="D11">
-        <v>0.4388375041981192</v>
+        <v>0.3165543773399691</v>
       </c>
       <c r="E11">
-        <v>0.1007518349397749</v>
+        <v>0.04714764523952475</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002693165195407018</v>
+        <v>0.0008436392475832388</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.648099519443846</v>
+        <v>2.591499867847986</v>
       </c>
       <c r="J11">
-        <v>0.01868845095210681</v>
+        <v>0.00978915738290187</v>
       </c>
       <c r="K11">
-        <v>2.810905126073862</v>
+        <v>3.307873745289442</v>
       </c>
       <c r="L11">
-        <v>0.7659084032043779</v>
+        <v>0.604659607020082</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>5.321699793326502</v>
+        <v>3.467739660951679</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.854722869436898</v>
+        <v>3.1034414413013</v>
       </c>
       <c r="C12">
-        <v>0.2840140982631283</v>
+        <v>0.4916173276767211</v>
       </c>
       <c r="D12">
-        <v>0.4396804708453175</v>
+        <v>0.3224705162254509</v>
       </c>
       <c r="E12">
-        <v>0.1007608491056953</v>
+        <v>0.0476815598745759</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002691878899800784</v>
+        <v>0.0008412659366458126</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.653674758594818</v>
+        <v>2.622902939246856</v>
       </c>
       <c r="J12">
-        <v>0.01872339553961844</v>
+        <v>0.009908534601463792</v>
       </c>
       <c r="K12">
-        <v>2.826395450927521</v>
+        <v>3.388657642917281</v>
       </c>
       <c r="L12">
-        <v>0.7677633717486145</v>
+        <v>0.6165220635021171</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>5.325213752936293</v>
+        <v>3.48212229093005</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.85186753035822</v>
+        <v>3.087805671335673</v>
       </c>
       <c r="C13">
-        <v>0.2834181594725464</v>
+        <v>0.4889027390046294</v>
       </c>
       <c r="D13">
-        <v>0.4394977040050208</v>
+        <v>0.3211918690960971</v>
       </c>
       <c r="E13">
-        <v>0.100758692918177</v>
+        <v>0.0475660470373036</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.00269215483801441</v>
+        <v>0.000841776590087059</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.652466946689245</v>
+        <v>2.616106697832265</v>
       </c>
       <c r="J13">
-        <v>0.01871587913297823</v>
+        <v>0.009882753525173982</v>
       </c>
       <c r="K13">
-        <v>2.823049517288212</v>
+        <v>3.371206223167064</v>
       </c>
       <c r="L13">
-        <v>0.7673616754688055</v>
+        <v>0.6139580971885295</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>5.324451135492666</v>
+        <v>3.478995516546377</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.842592896176825</v>
+        <v>3.036993439055436</v>
       </c>
       <c r="C14">
-        <v>0.2814784695804633</v>
+        <v>0.4800830294680623</v>
       </c>
       <c r="D14">
-        <v>0.4389063062958343</v>
+        <v>0.317039090496209</v>
       </c>
       <c r="E14">
-        <v>0.100752479717924</v>
+        <v>0.04719133583749269</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002693058880619731</v>
+        <v>0.0008434437732098758</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.648555005667433</v>
+        <v>2.59406865556582</v>
       </c>
       <c r="J14">
-        <v>0.01869133016614999</v>
+        <v>0.009798947050987827</v>
       </c>
       <c r="K14">
-        <v>2.812175102228309</v>
+        <v>3.31449616006671</v>
       </c>
       <c r="L14">
-        <v>0.7660600232249237</v>
+        <v>0.6056314406102672</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>5.321986265275171</v>
+        <v>3.468909859271662</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.836940532472624</v>
+        <v>3.006004862252723</v>
       </c>
       <c r="C15">
-        <v>0.2802932672115048</v>
+        <v>0.474705674079587</v>
       </c>
       <c r="D15">
-        <v>0.4385476274133993</v>
+        <v>0.3145083742289927</v>
       </c>
       <c r="E15">
-        <v>0.1007493031981461</v>
+        <v>0.04696333242617534</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002693615821878415</v>
+        <v>0.0008444664243513956</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.646179569159386</v>
+        <v>2.58066501333866</v>
       </c>
       <c r="J15">
-        <v>0.018676265228871</v>
+        <v>0.009747815954629147</v>
       </c>
       <c r="K15">
-        <v>2.805542940976636</v>
+        <v>3.279912580474502</v>
       </c>
       <c r="L15">
-        <v>0.7652691523197745</v>
+        <v>0.6005575636058609</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>5.320493506786789</v>
+        <v>3.462816526499381</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.804987594701288</v>
+        <v>2.830397710237889</v>
       </c>
       <c r="C16">
-        <v>0.27354587738688</v>
+        <v>0.4442528051501426</v>
       </c>
       <c r="D16">
-        <v>0.4365469009873237</v>
+        <v>0.3001963625554112</v>
       </c>
       <c r="E16">
-        <v>0.1007407535899176</v>
+        <v>0.04567921186946222</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002696856410855761</v>
+        <v>0.0008503509568083119</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.632884634093642</v>
+        <v>2.505254451959956</v>
       </c>
       <c r="J16">
-        <v>0.01858950230919465</v>
+        <v>0.009457688701528078</v>
       </c>
       <c r="K16">
-        <v>2.767976753153619</v>
+        <v>3.083957933161855</v>
       </c>
       <c r="L16">
-        <v>0.7608355094420176</v>
+        <v>0.5718684916380425</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5.312200118977501</v>
+        <v>3.429143966324972</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.785776596314861</v>
+        <v>2.724328136656027</v>
       </c>
       <c r="C17">
-        <v>0.2694461594553275</v>
+        <v>0.4258735186568288</v>
       </c>
       <c r="D17">
-        <v>0.4353683564119279</v>
+        <v>0.2915775753669436</v>
       </c>
       <c r="E17">
-        <v>0.1007441328914158</v>
+        <v>0.04491067346691402</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002698888221972893</v>
+        <v>0.0008539843952787392</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.625011966622239</v>
+        <v>2.460179187920147</v>
       </c>
       <c r="J17">
-        <v>0.01853588758065694</v>
+        <v>0.00928204687910128</v>
       </c>
       <c r="K17">
-        <v>2.745323416237227</v>
+        <v>2.965616301387001</v>
       </c>
       <c r="L17">
-        <v>0.7582035070370949</v>
+        <v>0.5545954880761457</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5.307345019172885</v>
+        <v>3.409548555118675</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.774870600999463</v>
+        <v>2.663890437839598</v>
       </c>
       <c r="C18">
-        <v>0.267102601545929</v>
+        <v>0.4154054825523019</v>
       </c>
       <c r="D18">
-        <v>0.4347084405066113</v>
+        <v>0.2866761563813043</v>
       </c>
       <c r="E18">
-        <v>0.1007492499354399</v>
+        <v>0.04447538251665506</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002700073010226634</v>
+        <v>0.0008560836137884557</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.620587877382107</v>
+        <v>2.434665347244504</v>
       </c>
       <c r="J18">
-        <v>0.01850490579843367</v>
+        <v>0.009181795438604645</v>
       </c>
       <c r="K18">
-        <v>2.732437845648207</v>
+        <v>2.898191259597041</v>
       </c>
       <c r="L18">
-        <v>0.7567219436391639</v>
+        <v>0.544773499686201</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5.304637874218315</v>
+        <v>3.398648936871353</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.77120268681972</v>
+        <v>2.643521725454889</v>
       </c>
       <c r="C19">
-        <v>0.266311596669766</v>
+        <v>0.4118781961500986</v>
       </c>
       <c r="D19">
-        <v>0.4344880880061481</v>
+        <v>0.2850259127160513</v>
       </c>
       <c r="E19">
-        <v>0.1007515278869704</v>
+        <v>0.04432913153871176</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002700476935702177</v>
+        <v>0.0008567960478273637</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.61910782303849</v>
+        <v>2.426095438282744</v>
       </c>
       <c r="J19">
-        <v>0.01849439104876272</v>
+        <v>0.009147976887497578</v>
       </c>
       <c r="K19">
-        <v>2.728099736977015</v>
+        <v>2.875468429495527</v>
       </c>
       <c r="L19">
-        <v>0.7562258578587802</v>
+        <v>0.5414667017308972</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5.303735935284351</v>
+        <v>3.395020532198856</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.787806769975816</v>
+        <v>2.735559499819146</v>
       </c>
       <c r="C20">
-        <v>0.2698810803468348</v>
+        <v>0.4278191663319717</v>
       </c>
       <c r="D20">
-        <v>0.4354919566617355</v>
+        <v>0.2924892034338455</v>
       </c>
       <c r="E20">
-        <v>0.1007434448188196</v>
+        <v>0.04499178001153581</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002698670262400828</v>
+        <v>0.0008535966569354703</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.62583925415818</v>
+        <v>2.464934338678688</v>
       </c>
       <c r="J20">
-        <v>0.01854160983634046</v>
+        <v>0.009300662334109866</v>
       </c>
       <c r="K20">
-        <v>2.747719993003955</v>
+        <v>2.97814654143906</v>
       </c>
       <c r="L20">
-        <v>0.7584803456752809</v>
+        <v>0.5564223796333891</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5.307853013952723</v>
+        <v>3.411595693282862</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.845311116807864</v>
+        <v>3.051889766067745</v>
       </c>
       <c r="C21">
-        <v>0.2820475959879332</v>
+        <v>0.4826683383580814</v>
       </c>
       <c r="D21">
-        <v>0.4390792703248536</v>
+        <v>0.3182561363395564</v>
       </c>
       <c r="E21">
-        <v>0.1007541735732804</v>
+        <v>0.04730107930169325</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002692792676922872</v>
+        <v>0.0008429537827109178</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.649699714914732</v>
+        <v>2.600521755177695</v>
       </c>
       <c r="J21">
-        <v>0.01869854661838222</v>
+        <v>0.009823520231326377</v>
       </c>
       <c r="K21">
-        <v>2.815363193003691</v>
+        <v>3.331121119116006</v>
       </c>
       <c r="L21">
-        <v>0.766441010271663</v>
+        <v>0.6080716270822393</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>5.322706704479884</v>
+        <v>3.47185454923374</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.884174211952541</v>
+        <v>3.264581355097278</v>
       </c>
       <c r="C22">
-        <v>0.2901293742334019</v>
+        <v>0.5196112206882049</v>
       </c>
       <c r="D22">
-        <v>0.441583552148586</v>
+        <v>0.3356680822868015</v>
       </c>
       <c r="E22">
-        <v>0.1007893596211566</v>
+        <v>0.04887741880392582</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002689094197824257</v>
+        <v>0.0008360651256452566</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.666222010101492</v>
+        <v>2.693335548632689</v>
       </c>
       <c r="J22">
-        <v>0.01879985791436667</v>
+        <v>0.01017407301333417</v>
       </c>
       <c r="K22">
-        <v>2.860857528132897</v>
+        <v>3.568532243054506</v>
       </c>
       <c r="L22">
-        <v>0.7719314805511033</v>
+        <v>0.6429912338936958</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>5.333177080541304</v>
+        <v>3.514963507345641</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.863314993963172</v>
+        <v>3.150474124245932</v>
       </c>
       <c r="C23">
-        <v>0.2858039992695751</v>
+        <v>0.4997846548394591</v>
       </c>
       <c r="D23">
-        <v>0.4402323554751177</v>
+        <v>0.3263188339715413</v>
       </c>
       <c r="E23">
-        <v>0.1007680062530749</v>
+        <v>0.04802959859994793</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002691055117107484</v>
+        <v>0.0008397364371364796</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.657318756082802</v>
+        <v>2.643387346738891</v>
       </c>
       <c r="J23">
-        <v>0.01874589980634589</v>
+        <v>0.009986065725259508</v>
       </c>
       <c r="K23">
-        <v>2.836458562933899</v>
+        <v>3.441154137744434</v>
       </c>
       <c r="L23">
-        <v>0.768974780007639</v>
+        <v>0.6242392966119468</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>5.327518948646002</v>
+        <v>3.491592565643487</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.78688849655731</v>
+        <v>2.730480118097432</v>
       </c>
       <c r="C24">
-        <v>0.2696844108108394</v>
+        <v>0.4269392342067135</v>
       </c>
       <c r="D24">
-        <v>0.4354360220274174</v>
+        <v>0.2920768901071398</v>
       </c>
       <c r="E24">
-        <v>0.1007437460083498</v>
+        <v>0.04495509140865117</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002698768750035944</v>
+        <v>0.0008537719211496597</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.62546491970916</v>
+        <v>2.462783293077251</v>
       </c>
       <c r="J24">
-        <v>0.01853902329671353</v>
+        <v>0.00929224404177198</v>
       </c>
       <c r="K24">
-        <v>2.746636070409352</v>
+        <v>2.972479727030077</v>
       </c>
       <c r="L24">
-        <v>0.758355088469969</v>
+        <v>0.5555961057091707</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>5.307623087498001</v>
+        <v>3.410669046447538</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.709941597636259</v>
+        <v>2.298879189482079</v>
       </c>
       <c r="C25">
-        <v>0.2528500923340005</v>
+        <v>0.3522329225880583</v>
       </c>
       <c r="D25">
-        <v>0.4309487707764532</v>
+        <v>0.2572444298464092</v>
       </c>
       <c r="E25">
-        <v>0.1008389511192433</v>
+        <v>0.04189373928659634</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002707706936239698</v>
+        <v>0.0008692767507292987</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.595082880107313</v>
+        <v>2.283498440247484</v>
       </c>
       <c r="J25">
-        <v>0.01831035157123928</v>
+        <v>0.008572565135139598</v>
       </c>
       <c r="K25">
-        <v>2.655252428327174</v>
+        <v>2.491032336437399</v>
       </c>
       <c r="L25">
-        <v>0.7481346112598857</v>
+        <v>0.4858025056567641</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>5.289424971490547</v>
+        <v>3.337382632991563</v>
       </c>
       <c r="O25">
         <v>0</v>
